--- a/doc/DCI variables.xlsx
+++ b/doc/DCI variables.xlsx
@@ -2357,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A1134" workbookViewId="0">
+      <selection activeCell="D1124" sqref="D1124:D1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
